--- a/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_5_202309_place_piqure.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_5_202309_place_piqure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC6542D-D79F-406E-9DCA-9CD0667EDF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF97352F-A5EF-4999-A0E0-62380233C652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>type</t>
   </si>
@@ -635,8 +635,8 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,9 +801,7 @@
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -896,7 +894,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>

--- a/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_5_202309_place_piqure.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_5_202309_place_piqure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF97352F-A5EF-4999-A0E0-62380233C652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B04449-2367-4C69-BD53-1F2F5FF1C147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>type</t>
   </si>
@@ -193,12 +193,6 @@
     <t>village</t>
   </si>
   <si>
-    <t>cm_oncho_pre_stop_5_202309_place_piqure</t>
-  </si>
-  <si>
-    <t>(Sept 2023) ONCHO - 5 Place des piqûres</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
@@ -227,6 +221,24 @@
   </si>
   <si>
     <t>v_photo_site3</t>
+  </si>
+  <si>
+    <t>v_village2</t>
+  </si>
+  <si>
+    <t>v_village_id2</t>
+  </si>
+  <si>
+    <t>${v_village} = 'Autre'</t>
+  </si>
+  <si>
+    <t>${v_village} != 'Autre'</t>
+  </si>
+  <si>
+    <t>(Sept 2023) ONCHO - 5 Place des piqûres V2</t>
+  </si>
+  <si>
+    <t>cm_oncho_pre_stop_5_202309_place_piqure_v2</t>
   </si>
 </sst>
 </file>
@@ -633,10 +645,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +659,8 @@
     <col min="4" max="4" width="25.28515625" style="5" customWidth="1"/>
     <col min="5" max="6" width="11.5703125" style="5"/>
     <col min="7" max="7" width="26.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5703125" style="5"/>
+    <col min="8" max="8" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="5"/>
     <col min="10" max="10" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5703125" style="5"/>
   </cols>
@@ -754,10 +767,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>9</v>
@@ -768,10 +784,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>9</v>
@@ -782,10 +801,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>9</v>
@@ -793,25 +815,27 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>9</v>
@@ -819,16 +843,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I11" s="8"/>
     </row>
@@ -837,42 +858,71 @@
         <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1000,8 +1050,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,10 +1074,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>20</v>

--- a/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_5_202309_place_piqure.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_5_202309_place_piqure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B04449-2367-4C69-BD53-1F2F5FF1C147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372E1B9E-73C5-4E68-98B9-5153E4D3098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>type</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>cm_oncho_pre_stop_5_202309_place_piqure_v2</t>
+  </si>
+  <si>
+    <t>Entrer le nom du village de remplassement</t>
+  </si>
+  <si>
+    <t>Code du village remplassé</t>
   </si>
 </sst>
 </file>
@@ -647,8 +653,8 @@
   </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +776,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>64</v>
@@ -804,7 +810,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>64</v>
@@ -1050,7 +1056,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
